--- a/data/trans_orig/Q70-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>1.949304481571224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.509220686812176</v>
+        <v>8.509220686812174</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5060581564928721</v>
@@ -693,7 +693,7 @@
         <v>4.613989219304522</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>8.671614429647605</v>
+        <v>8.671614429647606</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1523263473945152</v>
+        <v>0.1589127113799138</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3967064970270682</v>
+        <v>0.3959407782874858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8010583184686292</v>
+        <v>0.8574540205335184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.925587482663103</v>
+        <v>5.175908435147806</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2490595953238034</v>
+        <v>0.2657237462791309</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4283942187782279</v>
+        <v>0.413656665124207</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.648018989477886</v>
+        <v>3.453795215496329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.631595244204373</v>
+        <v>5.646353797464416</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2416960068477091</v>
+        <v>0.2383473745808387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5119022763917492</v>
+        <v>0.5294634577435042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.363884615821414</v>
+        <v>2.393817835262948</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.055490210954628</v>
+        <v>6.185559143722749</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5166937100763784</v>
+        <v>0.5563072509906576</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.651271136416628</v>
+        <v>2.510808471863623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.612159098404226</v>
+        <v>5.450365124506971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.02030771020056</v>
+        <v>13.99456234052863</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.011005890674244</v>
+        <v>0.9518433831298648</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.376810391654289</v>
+        <v>2.353249260835474</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>20.3568749615966</v>
+        <v>20.45453593792788</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.67383274672829</v>
+        <v>14.02741832189395</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5808547948018667</v>
+        <v>0.6000957134766643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.056272606935444</v>
+        <v>2.202681432862082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.03029833047255</v>
+        <v>10.3094708810822</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>12.39702282213253</v>
+        <v>12.40280175441724</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>1.629922922128325</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5.80376516530134</v>
+        <v>5.803765165301339</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.980606601737221</v>
@@ -829,7 +829,7 @@
         <v>1.749289696983917</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>4.931018590905455</v>
+        <v>4.931018590905456</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.143496999238335</v>
+        <v>1.146206263619262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2491104693171981</v>
+        <v>0.2308027337112717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.061634790825554</v>
+        <v>1.025753596033543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.842060923118842</v>
+        <v>1.839401338207385</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.170623285534949</v>
+        <v>2.036858741722673</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07708284313421118</v>
+        <v>0.08215623116568926</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5204646238033861</v>
+        <v>0.5133505168762855</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.168195056955973</v>
+        <v>3.155074618930192</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.761843016844864</v>
+        <v>1.806863706913059</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2440742588965146</v>
+        <v>0.233201226788517</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9905568373955015</v>
+        <v>0.9804897803577028</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.924973635030832</v>
+        <v>2.97266463951998</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.327770391680439</v>
+        <v>5.72592850812435</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.724600705315428</v>
+        <v>1.681353477342569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.925653328380185</v>
+        <v>3.686366970235677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.33554186396298</v>
+        <v>14.88273774098826</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.24776510241332</v>
+        <v>9.455692980970539</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8128849950120532</v>
+        <v>0.9827367746204722</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>6.555520024083136</v>
+        <v>6.869393205563068</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.42844821405655</v>
+        <v>11.76623606770046</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.452266471022161</v>
+        <v>5.251943506972665</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.100690847303937</v>
+        <v>1.149852512130744</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.475529874956559</v>
+        <v>3.449647918455028</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.49782054547471</v>
+        <v>10.49396495608427</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3150338688227979</v>
+        <v>0.3186193054588881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6419388242612302</v>
+        <v>0.6609698026733248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4947268706810252</v>
+        <v>0.4964729118424988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.699138558580551</v>
+        <v>4.425807135755371</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2426851925750373</v>
+        <v>0.1996725499972459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5928661021489586</v>
+        <v>0.6258157659876779</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02598634297391918</v>
+        <v>0.0263218059239061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.7190977126611</v>
+        <v>8.46068704764223</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3753662425777333</v>
+        <v>0.3661857626824249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8519185701255565</v>
+        <v>0.8526284853216473</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3449330040432683</v>
+        <v>0.329922263059628</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.369855243442145</v>
+        <v>7.122835732912314</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.624536532651511</v>
+        <v>2.477512984158912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.538424398129387</v>
+        <v>4.407509376778521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.618548881963727</v>
+        <v>6.44712045602589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.78124067173951</v>
+        <v>18.09055211005348</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.774344283946478</v>
+        <v>2.811170187085426</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.79224888672907</v>
+        <v>3.01189186353138</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4632032094188155</v>
+        <v>0.4832663682895482</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>24.82023340479036</v>
+        <v>24.94248368964726</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.153228220091569</v>
+        <v>1.893539103676489</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.509383068959215</v>
+        <v>3.597835658149043</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5.323103817381203</v>
+        <v>6.102228625549907</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.15489626141914</v>
+        <v>16.54365040805272</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>2.473961015980393</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.484912535261342</v>
+        <v>8.484912535261344</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8036517762575858</v>
@@ -1101,7 +1101,7 @@
         <v>4.790153196596624</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>11.04037624259192</v>
+        <v>11.04037624259191</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4583081030125957</v>
+        <v>0.4722069336115424</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1924429576185598</v>
+        <v>0.2040763489204762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.910887907906251</v>
+        <v>1.110545623243435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.779374339409848</v>
+        <v>6.347623883991706</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3109393039474364</v>
+        <v>0.2987664847856407</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1897740463701529</v>
+        <v>0.2200463309018634</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6223930738048662</v>
+        <v>0.6400444440634552</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>4.080495050711002</v>
+        <v>4.447664559378145</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4761560861796035</v>
+        <v>0.4950833358351023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3650831568151839</v>
+        <v>0.3147012297042212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.765113030517667</v>
+        <v>1.921670852216107</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.737927326881273</v>
+        <v>6.700187491537666</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.384068650748679</v>
+        <v>2.46516196879223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.358076600909657</v>
+        <v>1.309010839865551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.6618709332931</v>
+        <v>19.42970220011354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30.12971132906599</v>
+        <v>27.00799395625061</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.005238753863896</v>
+        <v>1.058466598940114</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.851500532318362</v>
+        <v>10.84573833019826</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.132560018249814</v>
+        <v>7.923793862929347</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>16.39715816182921</v>
+        <v>16.43492744451851</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.735786925041939</v>
+        <v>1.717226970243602</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4.36064339657419</v>
+        <v>4.011471856991793</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.11192699128765</v>
+        <v>12.30140814088056</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>19.11804854779557</v>
+        <v>18.92293192112876</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.5281352469473495</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>3.451991813609021</v>
+        <v>3.45199181360902</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1.251129563315227</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6933743438502843</v>
+        <v>0.7086543463338826</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3143563133071898</v>
+        <v>0.3512201591261222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3922906458100086</v>
+        <v>0.3719468602296611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.315304946743379</v>
+        <v>2.229671210090126</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2845933639091578</v>
+        <v>0.3152905004234452</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.831403531467488</v>
+        <v>5.258256083761182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1627556562776665</v>
+        <v>0.1818148357460639</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.028121414603783</v>
+        <v>2.038930431739864</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6989421903515173</v>
+        <v>0.693430252709947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.070867256937242</v>
+        <v>2.908676212934376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3771007019816964</v>
+        <v>0.3711135589889855</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.473151145921954</v>
+        <v>2.589945555341506</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.602857086229036</v>
+        <v>2.617602448848033</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.241299921004484</v>
+        <v>6.455936758516546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.364037998410076</v>
+        <v>1.434021929849351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.538552627760023</v>
+        <v>7.720934234430964</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.723614591120549</v>
+        <v>3.54899888975419</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>50.18543543158637</v>
+        <v>45.59142743775095</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.521140840393459</v>
+        <v>1.338997346578714</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.901773581987155</v>
+        <v>5.970068641009819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.224956405490645</v>
+        <v>2.23948697193326</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18.95100100809704</v>
+        <v>19.62809350266985</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.124633140178721</v>
+        <v>1.150492120885993</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>5.817952739867248</v>
+        <v>5.769789574952189</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>2.928962356616299</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.742254899550593</v>
+        <v>9.742254899550595</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>5.258801016727002</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09207382200962257</v>
+        <v>0.09496022067817195</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3994260073927578</v>
+        <v>0.3955754667233672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.145786190189505</v>
+        <v>1.136140244671054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.904339123078012</v>
+        <v>4.608857895969581</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4197275064718709</v>
+        <v>0.479575814238279</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4708373088264968</v>
+        <v>0.4896791079252056</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7095128212085566</v>
+        <v>0.6802368438476291</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.276819484972557</v>
+        <v>5.48539745591539</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2809520647941877</v>
+        <v>0.2516806978688991</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5244271774936444</v>
+        <v>0.5370110691028948</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.317878154373959</v>
+        <v>1.150671119116599</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.827458501675943</v>
+        <v>5.897353193667064</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3428500748437734</v>
+        <v>0.3473469336192795</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.536400134549153</v>
+        <v>2.393092571143829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.812428731088986</v>
+        <v>7.048962263728939</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.8959107721553</v>
+        <v>20.85363927066825</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>24.85102440525593</v>
+        <v>27.14056028392299</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.142066424932961</v>
+        <v>2.009290474522605</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>6.041337870005386</v>
+        <v>6.075252045375074</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>22.52426745338349</v>
+        <v>20.94362534017395</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9.389542592860634</v>
+        <v>8.405959019088394</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.043374712714206</v>
+        <v>2.172464039702449</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5.225383814377121</v>
+        <v>5.061172074621743</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>16.9897836603626</v>
+        <v>17.44412112837348</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.9723064533651784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.783380668490694</v>
+        <v>5.783380668490695</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>2.202813626712468</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5089554468580247</v>
+        <v>0.5568860162958121</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.231729260073835</v>
+        <v>1.298671285663547</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6565088040238707</v>
+        <v>0.6537854518987801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.660783218809178</v>
+        <v>3.413350448094228</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7410065404642269</v>
+        <v>0.7634771854266712</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.306315751834575</v>
+        <v>0.3165786554734353</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7854115871822254</v>
+        <v>0.776450252530588</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.289741261391109</v>
+        <v>8.593706167422003</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8192166106581652</v>
+        <v>0.9023382773065454</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.140760407483633</v>
+        <v>1.037302559618464</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8510975498301319</v>
+        <v>0.8501113964600483</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.395111800863325</v>
+        <v>6.5939124950698</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.940808064824399</v>
+        <v>4.570115071094841</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.632305283205644</v>
+        <v>9.064318720873443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.675141118836975</v>
+        <v>1.618214710876072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.06260045915911</v>
+        <v>10.40135613245561</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.530515017684175</v>
+        <v>5.513578427815466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.183444443989253</v>
+        <v>3.440094540740262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.110786857077232</v>
+        <v>4.844334523952016</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.36508126038044</v>
+        <v>16.61157178880159</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.535953235489083</v>
+        <v>3.994958770174935</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.108383377334586</v>
+        <v>4.965971512448903</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.33998326541353</v>
+        <v>2.549066610458233</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>11.03693920214056</v>
+        <v>11.314013275319</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>2.130008153396625</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.862257757821006</v>
+        <v>2.862257757821005</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>1.341922741977704</v>
@@ -1633,7 +1633,7 @@
         <v>1.132022683358024</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>4.957651194086498</v>
+        <v>4.957651194086497</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>1.830912018533517</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.424072682608164</v>
+        <v>1.374899921380747</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6326829650227773</v>
+        <v>0.664870976032108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8282876999048283</v>
+        <v>0.7536250626209253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.907215824963952</v>
+        <v>1.837692759171679</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.948478842592864</v>
+        <v>0.9361718867837937</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6140570594365313</v>
+        <v>0.5645226839099489</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4114399680536189</v>
+        <v>0.3964030521072078</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>3.713334215158274</v>
+        <v>3.724790163611534</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1.310870596038125</v>
+        <v>1.344344507727838</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8644674637210098</v>
+        <v>0.8305031777017803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8618178394329543</v>
+        <v>0.9078109606348389</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>2.882627720007652</v>
+        <v>2.907423684759188</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.534698620375285</v>
+        <v>3.584598923488978</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.191248745893538</v>
+        <v>5.178065811679502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.851106239482959</v>
+        <v>5.549516141609742</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.465864472456552</v>
+        <v>4.291114099440207</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>2.058114851824927</v>
+        <v>2.052363587808161</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2.072955039677716</v>
+        <v>2.051754776948127</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3.863515117879176</v>
+        <v>4.276472468309393</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>6.679326032458437</v>
+        <v>6.668942375453</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.956817340694369</v>
+        <v>2.733446647173544</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3.529317647170945</v>
+        <v>3.242049329767765</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4.052495188453592</v>
+        <v>4.353264701707102</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>4.726175521883524</v>
+        <v>4.889557708844878</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>2.064357554482883</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>8.407841448757594</v>
+        <v>8.407841448757596</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>1.586834695897134</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.039182866367314</v>
+        <v>1.073495766947301</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.089757011220464</v>
+        <v>1.130270591229313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.460774079017817</v>
+        <v>1.461643016162406</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.918645499930649</v>
+        <v>4.959869226991946</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.264242437486997</v>
+        <v>1.253148006605261</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.169724512886586</v>
+        <v>1.193183372664935</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.325910916411905</v>
+        <v>1.376142566030175</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.992740688088827</v>
+        <v>7.078467323191651</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.233963692765018</v>
+        <v>1.251356146672426</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1.301034916828829</v>
+        <v>1.287654217428287</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1.540010755899584</v>
+        <v>1.580503650728972</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>6.207476361749204</v>
+        <v>6.17768557410951</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.060191545927548</v>
+        <v>2.07446067338514</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.838412754659926</v>
+        <v>2.715960669430085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.199624041775551</v>
+        <v>3.329863354473749</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.482202144191598</v>
+        <v>8.30618853984171</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.578348190448347</v>
+        <v>3.602105073217145</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.903194031539166</v>
+        <v>3.859570756546236</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.412439565881195</v>
+        <v>3.450633478241704</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.1288953102705</v>
+        <v>10.2531558393079</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.210487519790578</v>
+        <v>2.287788719087807</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2.67053292084722</v>
+        <v>2.766123760773307</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2.964174624020752</v>
+        <v>2.935894158104332</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>8.610018364240704</v>
+        <v>8.433254766105886</v>
       </c>
     </row>
     <row r="31">
